--- a/linea_detalle_data.xlsx
+++ b/linea_detalle_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="102">
   <si>
     <t>NumeroLinea</t>
   </si>
@@ -76,22 +76,115 @@
     <t>2</t>
   </si>
   <si>
-    <t>00100001010000318051</t>
-  </si>
-  <si>
-    <t>2131300009900</t>
-  </si>
-  <si>
-    <t>PAPAS CONGELADAS TRADICIONAL 10 MM FARM FRITES BOLSA 2 K</t>
-  </si>
-  <si>
-    <t>PAPAS CONGELADAS 10 MM STAR FRITES 2 K</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>Descuento Comercial</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>00100004010000032593</t>
+  </si>
+  <si>
+    <t>2399905000200</t>
+  </si>
+  <si>
+    <t>3532201060000</t>
+  </si>
+  <si>
+    <t>2367000000500</t>
+  </si>
+  <si>
+    <t>LIOTE TE FRIO MELOCOTON 3000G FAMILIAR 4U</t>
+  </si>
+  <si>
+    <t>ROMEO OFERTA ESPECIAL 3U X 1450</t>
+  </si>
+  <si>
+    <t>TRULULU FRESITAS BOLSA 80G 1X24</t>
+  </si>
+  <si>
+    <t>TRULULU GUSANOS ACIDOS BOLSA 80G 1X24</t>
+  </si>
+  <si>
+    <t>TRULULU GOMITAS GUSANOS BOLSA 80G 1X24</t>
+  </si>
+  <si>
+    <t>TRULULU FEROZ MINI BOLSA 70G 1X24U</t>
+  </si>
+  <si>
+    <t>TRULULU CLASICAS 80G 1X24</t>
+  </si>
+  <si>
+    <t>TRULULU ARCOIRIS 80G 1X24B</t>
+  </si>
+  <si>
+    <t>TRULULU GOMITAS DINOS BOLSA 80G 1X24</t>
+  </si>
+  <si>
+    <t>TRULULU MONSTRY 75G 1X24B</t>
+  </si>
+  <si>
+    <t>TRULULU NEON 80G 1X24B</t>
+  </si>
+  <si>
+    <t>TRULULU SPLASH BOLSA 80G 1X24</t>
+  </si>
+  <si>
+    <t>13.0000</t>
   </si>
   <si>
     <t>01</t>
@@ -100,55 +193,133 @@
     <t>08</t>
   </si>
   <si>
-    <t>18.000</t>
-  </si>
-  <si>
-    <t>15.000</t>
-  </si>
-  <si>
-    <t>2956.00</t>
-  </si>
-  <si>
-    <t>3078.00</t>
-  </si>
-  <si>
-    <t>13461.62</t>
-  </si>
-  <si>
-    <t>17821.62</t>
-  </si>
-  <si>
-    <t>5167.03</t>
-  </si>
-  <si>
-    <t>3685.29</t>
-  </si>
-  <si>
-    <t>39746.38</t>
-  </si>
-  <si>
-    <t>28348.38</t>
-  </si>
-  <si>
-    <t>44913.41</t>
-  </si>
-  <si>
-    <t>32033.67</t>
-  </si>
-  <si>
-    <t>2131356</t>
-  </si>
-  <si>
-    <t>2131338</t>
+    <t>12.000</t>
+  </si>
+  <si>
+    <t>6.000</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>4899.99000</t>
+  </si>
+  <si>
+    <t>1187.60000</t>
+  </si>
+  <si>
+    <t>405.31000</t>
+  </si>
+  <si>
+    <t>0.00000</t>
+  </si>
+  <si>
+    <t>419.99000</t>
+  </si>
+  <si>
+    <t>7467.59000</t>
+  </si>
+  <si>
+    <t>712.56000</t>
+  </si>
+  <si>
+    <t>486.37000</t>
+  </si>
+  <si>
+    <t>503.99000</t>
+  </si>
+  <si>
+    <t>6673.20000</t>
+  </si>
+  <si>
+    <t>833.70000</t>
+  </si>
+  <si>
+    <t>569.06000</t>
+  </si>
+  <si>
+    <t>47.42000</t>
+  </si>
+  <si>
+    <t>589.67000</t>
+  </si>
+  <si>
+    <t>49.14000</t>
+  </si>
+  <si>
+    <t>51332.29000</t>
+  </si>
+  <si>
+    <t>6413.04000</t>
+  </si>
+  <si>
+    <t>4377.35000</t>
+  </si>
+  <si>
+    <t>4535.89000</t>
+  </si>
+  <si>
+    <t>58005.49000</t>
+  </si>
+  <si>
+    <t>7246.74000</t>
+  </si>
+  <si>
+    <t>4946.41000</t>
+  </si>
+  <si>
+    <t>5125.56000</t>
+  </si>
+  <si>
+    <t>2399941</t>
+  </si>
+  <si>
+    <t>3532231</t>
+  </si>
+  <si>
+    <t>2367031</t>
+  </si>
+  <si>
+    <t>2367037</t>
+  </si>
+  <si>
+    <t>2367038</t>
+  </si>
+  <si>
+    <t>2367034</t>
+  </si>
+  <si>
+    <t>2367025</t>
+  </si>
+  <si>
+    <t>2367026</t>
+  </si>
+  <si>
+    <t>2367036</t>
+  </si>
+  <si>
+    <t>2367022</t>
+  </si>
+  <si>
+    <t>2367029</t>
   </si>
   <si>
     <t>Unid</t>
   </si>
   <si>
-    <t>53208.00</t>
-  </si>
-  <si>
-    <t>46170.00</t>
+    <t>58799.88000</t>
+  </si>
+  <si>
+    <t>7125.60000</t>
+  </si>
+  <si>
+    <t>4863.72000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5039.88000</t>
   </si>
 </sst>
 </file>
@@ -506,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,52 +744,52 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -626,52 +797,1082 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="s">
+        <v>96</v>
+      </c>
+      <c r="R15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="M3" t="s">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="N3" t="s">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/linea_detalle_data.xlsx
+++ b/linea_detalle_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>NumeroLinea</t>
   </si>
@@ -79,34 +79,31 @@
     <t>2</t>
   </si>
   <si>
-    <t>00100001010002038940</t>
-  </si>
-  <si>
-    <t>2399999001800</t>
-  </si>
-  <si>
-    <t>2165200009900</t>
-  </si>
-  <si>
-    <t>ADEREZO QUESO CHEDDAR HELLMANNS 1/1 LT</t>
-  </si>
-  <si>
-    <t>ACEITE DE OLEINA DE PALMA P/FREIR MFS 1/17 LT</t>
-  </si>
-  <si>
-    <t>2399938</t>
-  </si>
-  <si>
-    <t>2165245</t>
+    <t>00100102010000009206</t>
+  </si>
+  <si>
+    <t>3694000010100</t>
+  </si>
+  <si>
+    <t>3219905000200</t>
+  </si>
+  <si>
+    <t>Tapa #12-14-16-21 Plast BF 40x25 unid Dynapack</t>
+  </si>
+  <si>
+    <t>Vasos #22 EB Carton BF 40x25 unid</t>
+  </si>
+  <si>
+    <t>DESCUENTO</t>
+  </si>
+  <si>
+    <t>3694046</t>
+  </si>
+  <si>
+    <t>3219933</t>
   </si>
   <si>
     <t>Unid</t>
-  </si>
-  <si>
-    <t>132702</t>
-  </si>
-  <si>
-    <t>160682</t>
   </si>
   <si>
     <t>factura</t>
@@ -548,6 +545,9 @@
       <c r="E2">
         <v>13</v>
       </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
@@ -555,37 +555,34 @@
         <v>8</v>
       </c>
       <c r="I2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>2804</v>
+        <v>10391.33</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1558.6995</v>
       </c>
       <c r="L2">
-        <v>8748.48</v>
+        <v>1148.24197</v>
       </c>
       <c r="M2">
-        <v>67296</v>
+        <v>8832.630499999999</v>
       </c>
       <c r="N2">
-        <v>76044.48</v>
+        <v>9980.87247</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
         <v>29</v>
       </c>
       <c r="R2">
-        <v>67296</v>
+        <v>10391.33</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -602,46 +599,46 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>14798.7</v>
+        <v>33408</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>5011.2</v>
       </c>
       <c r="L3">
-        <v>443.96</v>
+        <v>3691.584</v>
       </c>
       <c r="M3">
-        <v>44396.1</v>
+        <v>28396.8</v>
       </c>
       <c r="N3">
-        <v>44840.06</v>
+        <v>32088.384</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3">
+        <v>33408</v>
+      </c>
+      <c r="S3" t="s">
         <v>30</v>
-      </c>
-      <c r="R3">
-        <v>44396.1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
